--- a/data/hotels_by_city/Dallas/Dallas_shard_572.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_572.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,153 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r511985658-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>547965</t>
+  </si>
+  <si>
+    <t>511985658</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>This is the worse motal Ive ever been too. I came all the way from califorina to visit my husband who is currently working in Texas. We choose this spot not knowing once we got in our room there was roaches everywere. They also wont return money smh. Never the hell again. Also the front desk lady was so rude smh.... MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Fort Worth - Seminary, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>This is the worse motal Ive ever been too. I came all the way from califorina to visit my husband who is currently working in Texas. We choose this spot not knowing once we got in our room there was roaches everywere. They also wont return money smh. Never the hell again. Also the front desk lady was so rude smh.... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r342705550-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>342705550</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>I stayed in this Motel 6 for one night before flying out of DFW Airport to Orlando with a rescue pup. I realize this is a cheaper motel and didn't expect luxury, but even the nonsmoking room smelled like marijuana or something! They didn't provide shampoo or breakfast. I had to leave the motel @ 5:15 am, so I had to guilt the clerk into making coffee before I left. In addition to these little quirks, I heard noise from the other rooms all night. Although my stay wasn't what I expected, the staff was very friendly. This was the upside of the stay!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r255306348-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>255306348</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Not a safe place to stay</t>
+  </si>
+  <si>
+    <t>The room was clean enough but very poorly built, the front door had a huge gap that looked out to the car park. There was all sorts of dodgy goings on at night, people coming and going all night. Very noisy with traffic, arguments and screaming. Felt the most unsafe here than anywhere we have been in America or the world for that matter. Do not stay here if you want to get any sleep. The guy at reception was helpful enough but this did not make up for how unsafe and generally terrible this experience was. Never again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r22636120-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>22636120</t>
+  </si>
+  <si>
+    <t>12/11/2008</t>
+  </si>
+  <si>
+    <t>hotel is scary</t>
+  </si>
+  <si>
+    <t>hotel room seemed clean. customers and other people were not the best crowd. dude next store was having sex and woke us up screaming.hotels.com charged me double what the walk-in rate was.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r19359453-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>19359453</t>
+  </si>
+  <si>
+    <t>08/25/2008</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Room was basically clean, biggest gripe was could've used better sound deadening from outdoors and neighboring rooms. Surrounding neighborhood   was   trashy,  i.e. one unfortunate truck in lot  was burglarized in the morning, back window smashed.  Had to demand receipt for cash paid for room ,wtf?? I wouldn't go back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r16292181-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>16292181</t>
+  </si>
+  <si>
+    <t>05/21/2008</t>
+  </si>
+  <si>
+    <t>Much Better</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel before because of a review on www.tripadvisor.com and didn't think it was that great, but now they have new room which are much better, a new staff, and a jacuzzi room that is great. Me and my wife enjoyed a dip in the pool and a dinner at the Tino's restaurant that is located inside the hotel. The downside is that they are not done with the remodeling but it seems like they are close to finishing, and the workers do keep there equipment on the parking lot but I feel that it is a minor downside compared to how great the rooms are.  Hotels.com has it listed for like $60 but it would be much cheaper if you stay without reserving the room from the website.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel before because of a review on www.tripadvisor.com and didn't think it was that great, but now they have new room which are much better, a new staff, and a jacuzzi room that is great. Me and my wife enjoyed a dip in the pool and a dinner at the Tino's restaurant that is located inside the hotel. The downside is that they are not done with the remodeling but it seems like they are close to finishing, and the workers do keep there equipment on the parking lot but I feel that it is a minor downside compared to how great the rooms are.  Hotels.com has it listed for like $60 but it would be much cheaper if you stay without reserving the room from the website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r4090515-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>4090515</t>
+  </si>
+  <si>
+    <t>11/05/2005</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>There were many things wrong with our stay at this hotel. First we were quoted one price at registration, but they wouldn't give it to us when we checked in. Second the staff was very unfriendly. Third the room was falling apart! The bathroom door wouldn't shut and the handle was falling off, there wasn't a lock on the front door, the shower had hair and old soap pieces in the drain, there was mold and rust all over the sink, there were spots on the covers and sheets, there was gum on the wall, and the headboard was falling off the wall, the floor was so dirty that my son had black feet from walking on it, the light switch was shattered and you could see wires. I wish we would have known this before we paid for the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>There were many things wrong with our stay at this hotel. First we were quoted one price at registration, but they wouldn't give it to us when we checked in. Second the staff was very unfriendly. Third the room was falling apart! The bathroom door wouldn't shut and the handle was falling off, there wasn't a lock on the front door, the shower had hair and old soap pieces in the drain, there was mold and rust all over the sink, there were spots on the covers and sheets, there was gum on the wall, and the headboard was falling off the wall, the floor was so dirty that my son had black feet from walking on it, the light switch was shattered and you could see wires. I wish we would have known this before we paid for the room.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +795,443 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_572.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_572.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Rowrow R</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This is the worse motal Ive ever been too. I came all the way from califorina to visit my husband who is currently working in Texas. We choose this spot not knowing once we got in our room there was roaches everywere. They also wont return money smh. Never the hell again. Also the front desk lady was so rude smh.... More</t>
   </si>
   <si>
+    <t>grandnannasmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r342705550-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Jimmy6900</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r255306348-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>The room was clean enough but very poorly built, the front door had a huge gap that looked out to the car park. There was all sorts of dodgy goings on at night, people coming and going all night. Very noisy with traffic, arguments and screaming. Felt the most unsafe here than anywhere we have been in America or the world for that matter. Do not stay here if you want to get any sleep. The guy at reception was helpful enough but this did not make up for how unsafe and generally terrible this experience was. Never again!</t>
   </si>
   <si>
+    <t>FtWorthCritical</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r22636120-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>northwichita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r19359453-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>Room was basically clean, biggest gripe was could've used better sound deadening from outdoors and neighboring rooms. Surrounding neighborhood   was   trashy,  i.e. one unfortunate truck in lot  was burglarized in the morning, back window smashed.  Had to demand receipt for cash paid for room ,wtf?? I wouldn't go back.</t>
   </si>
   <si>
+    <t>Austin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r16292181-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -277,6 +295,9 @@
   </si>
   <si>
     <t>I have stayed in this hotel before because of a review on www.tripadvisor.com and didn't think it was that great, but now they have new room which are much better, a new staff, and a jacuzzi room that is great. Me and my wife enjoyed a dip in the pool and a dinner at the Tino's restaurant that is located inside the hotel. The downside is that they are not done with the remodeling but it seems like they are close to finishing, and the workers do keep there equipment on the parking lot but I feel that it is a minor downside compared to how great the rooms are.  Hotels.com has it listed for like $60 but it would be much cheaper if you stay without reserving the room from the website.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r4090515-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
@@ -799,43 +820,47 @@
       <c r="A2" t="n">
         <v>6125</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169398</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -847,56 +872,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6125</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -916,41 +945,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6125</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -979,50 +1012,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6125</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1046,41 +1083,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6125</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169402</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -1109,50 +1150,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6125</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1176,41 +1221,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6125</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1229,7 +1278,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_572.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_572.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Rowrow R</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r577083750-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>547965</t>
+  </si>
+  <si>
+    <t>577083750</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Nice and Economical</t>
+  </si>
+  <si>
+    <t>I really enjoyed my short stay. Henry was warm and friendly. The room was clean, bedding was nice, tv picture and sound was good, and the shower was great. Staid on a Sunday night. It was quiet during my entire stay, except during checkout times. I could hear hotel doors opening and closing from my room as people came and went but for the price it didn't bother me at all.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r538375248-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>538375248</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Noisy and Uncomfortable</t>
+  </si>
+  <si>
+    <t>Right off the freeway and VERY NOISY. The window in the bath is broken out and repaired with a board and duct tape. Right. This feels really safe. And of course it lets in the freeway noise. The room is stripped—no lamps, no blanket (not even on the bed), no plug in the sink, no Kleenex, no rug on the floor. It does have a microwave, fridge, and TV. You can hardly hear the TV because of the freeway. A very uncomfortable room.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r511985658-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>547965</t>
-  </si>
-  <si>
     <t>511985658</t>
   </si>
   <si>
@@ -180,9 +219,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Fort Worth - Seminary, responded to this reviewResponded August 14, 2017</t>
   </si>
   <si>
@@ -192,9 +228,6 @@
     <t>This is the worse motal Ive ever been too. I came all the way from califorina to visit my husband who is currently working in Texas. We choose this spot not knowing once we got in our room there was roaches everywere. They also wont return money smh. Never the hell again. Also the front desk lady was so rude smh.... More</t>
   </si>
   <si>
-    <t>grandnannasmith</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r342705550-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,12 +246,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Jimmy6900</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r255306348-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -234,7 +261,43 @@
     <t>The room was clean enough but very poorly built, the front door had a huge gap that looked out to the car park. There was all sorts of dodgy goings on at night, people coming and going all night. Very noisy with traffic, arguments and screaming. Felt the most unsafe here than anywhere we have been in America or the world for that matter. Do not stay here if you want to get any sleep. The guy at reception was helpful enough but this did not make up for how unsafe and generally terrible this experience was. Never again!</t>
   </si>
   <si>
-    <t>FtWorthCritical</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r166643596-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>166643596</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>We would stay there again</t>
+  </si>
+  <si>
+    <t>We stayed here 4 a week in a nonsmoking rm that was nonsmoken the room was great 4 the price and nice and clean showers was good strong shower had fridge and microwave bed was good and pillows WE WOULD STAY AGAIN</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r48432633-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>48432633</t>
+  </si>
+  <si>
+    <t>11/03/2009</t>
+  </si>
+  <si>
+    <t>very discussed reporting to better business bureau, very shady place</t>
+  </si>
+  <si>
+    <t>I complained about the room, smelled, hair in sink and shower not clean, when do they vacume the rooms, never, hotel staff very rude and shady.  The alleged manager never around to answer to.  Stuff in room was packed in bags, had a ring in pants pocket, neatly folded and placed in duffle bag and had makup packed up.  When we returned to pickup our stuff, it had been gone thru and shoved back in the bags, the ring was stolen, and the makeup.  Called the desk and of course manager not around, and they deny the ring was ever there.  Had to call the local athoriities and the maids not there to question and the ring gone, a 650.00 ring gone.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I complained about the room, smelled, hair in sink and shower not clean, when do they vacume the rooms, never, hotel staff very rude and shady.  The alleged manager never around to answer to.  Stuff in room was packed in bags, had a ring in pants pocket, neatly folded and placed in duffle bag and had makup packed up.  When we returned to pickup our stuff, it had been gone thru and shoved back in the bags, the ring was stolen, and the makeup.  Called the desk and of course manager not around, and they deny the ring was ever there.  Had to call the local athoriities and the maids not there to question and the ring gone, a 650.00 ring gone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r22636120-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
@@ -255,9 +318,6 @@
     <t>December 2008</t>
   </si>
   <si>
-    <t>northwichita</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r19359453-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,9 +333,6 @@
     <t>Room was basically clean, biggest gripe was could've used better sound deadening from outdoors and neighboring rooms. Surrounding neighborhood   was   trashy,  i.e. one unfortunate truck in lot  was burglarized in the morning, back window smashed.  Had to demand receipt for cash paid for room ,wtf?? I wouldn't go back.</t>
   </si>
   <si>
-    <t>Austin S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r16292181-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -297,7 +354,46 @@
     <t>I have stayed in this hotel before because of a review on www.tripadvisor.com and didn't think it was that great, but now they have new room which are much better, a new staff, and a jacuzzi room that is great. Me and my wife enjoyed a dip in the pool and a dinner at the Tino's restaurant that is located inside the hotel. The downside is that they are not done with the remodeling but it seems like they are close to finishing, and the workers do keep there equipment on the parking lot but I feel that it is a minor downside compared to how great the rooms are.  Hotels.com has it listed for like $60 but it would be much cheaper if you stay without reserving the room from the website.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r12600938-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>12600938</t>
+  </si>
+  <si>
+    <t>01/14/2008</t>
+  </si>
+  <si>
+    <t>What a repugnant dump!</t>
+  </si>
+  <si>
+    <t>I will never know how this motel got 2 stars in the ratings!  There was furniture and building supplies stored on the parking lot, air conditioners in the hall way, broken windows, and flotsom in the green pool.  Someone was welding on the parking lot.  The room seemed clean, but there was mold in the bathtub, and the sink didn't drain.  The road sign proclaimed the price in the lot thirty dollar range, but Hotels.com listed the lowest rate at $80.00 +.   Do yourself a favor and don't stay here.</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r5500627-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>5500627</t>
+  </si>
+  <si>
+    <t>07/22/2006</t>
+  </si>
+  <si>
+    <t>Loved the Excellent Stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel before when it was a Travelodge and WOW...what a difference. The hotel has been beautifully remolded. Everything was new. I will definetely stay at this hotel again. The Staff has done a great job with the service and the renovations.  This motel has been remodeled and they now have over 20 cable channels.  The rooms are extremely clean and look marvelous.  The pool has been kept in perfect shape.  The staff was extremely friendly particularly one individual named Mike.  I would definately recommend this hotel to anyone who would like to get their money's worth and much much more.  I would rate this Hotel a 5 out of 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel before when it was a Travelodge and WOW...what a difference. The hotel has been beautifully remolded. Everything was new. I will definetely stay at this hotel again. The Staff has done a great job with the service and the renovations.  This motel has been remodeled and they now have over 20 cable channels.  The rooms are extremely clean and look marvelous.  The pool has been kept in perfect shape.  The staff was extremely friendly particularly one individual named Mike.  I would definately recommend this hotel to anyone who would like to get their money's worth and much much more.  I would rate this Hotel a 5 out of 5.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d547965-r4090515-Motel_6_Fort_Worth_Seminary-Fort_Worth_Texas.html</t>
@@ -820,47 +916,43 @@
       <c r="A2" t="n">
         <v>6125</v>
       </c>
-      <c r="B2" t="n">
-        <v>169398</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -871,211 +963,183 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6125</v>
       </c>
-      <c r="B3" t="n">
-        <v>169399</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6125</v>
       </c>
-      <c r="B4" t="n">
-        <v>169400</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6125</v>
       </c>
-      <c r="B5" t="n">
-        <v>169401</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
         <v>3</v>
       </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="n">
         <v>3</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1083,66 +1147,62 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6125</v>
       </c>
-      <c r="B6" t="n">
-        <v>169402</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1150,70 +1210,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6125</v>
       </c>
-      <c r="B7" t="n">
-        <v>169403</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
         <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1221,64 +1273,458 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6125</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6125</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
